--- a/results_diagrams.xlsx
+++ b/results_diagrams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dani/Desktop/Udacity/Programming for Data Science/Investigating a Relational Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1F107B-9410-8144-AD4D-1B2D69029F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7ED258-2A77-F349-8BDD-DC211A48EA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3740" yWindow="1220" windowWidth="32380" windowHeight="25140" activeTab="3" xr2:uid="{BAA5A80D-4336-5247-B8BD-44106B4C3EE3}"/>
   </bookViews>
@@ -19,92 +19,19 @@
     <sheet name="Question 4" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Question 1'!$A$2:$B$351</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Question 1'!$C$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Question 2'!$E$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Question 2'!$E$5</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Question 2'!$E$6</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Question 2'!$F$2:$K$2</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Question 2'!$F$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Question 2'!$F$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Question 2'!$F$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Question 2'!$F$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Question 2'!$E$3</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Question 2'!$E$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Question 1'!$C$2:$C$351</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Question 2'!$E$5</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Question 2'!$E$6</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Question 2'!$F$2:$K$2</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Question 2'!$F$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Question 2'!$F$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Question 2'!$F$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Question 2'!$F$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Question 2'!$E$3</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Question 2'!$E$4</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Question 2'!$E$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Question 1'!$A$2:$B$351</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Question 2'!$E$6</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'Question 2'!$F$2:$K$2</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Question 2'!$F$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Question 2'!$F$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Question 2'!$F$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Question 2'!$F$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'Question 2'!$E$3</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'Question 2'!$E$4</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'Question 2'!$E$5</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'Question 2'!$E$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Question 1'!$C$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'Question 2'!$F$2:$K$2</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'Question 2'!$F$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'Question 2'!$F$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'Question 2'!$F$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'Question 2'!$F$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'Question 2'!$E$3</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'Question 2'!$E$4</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'Question 2'!$E$5</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'Question 2'!$E$6</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'Question 2'!$F$2:$K$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Question 1'!$C$2:$C$351</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'Question 2'!$F$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'Question 2'!$F$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'Question 2'!$F$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'Question 2'!$F$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'Question 2'!$E$3</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">'Question 2'!$E$4</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">'Question 2'!$E$5</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">'Question 2'!$E$6</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">'Question 2'!$F$2:$K$2</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">'Question 2'!$F$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Question 1'!$A$2:$B$351</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">'Question 2'!$F$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">'Question 2'!$F$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">'Question 2'!$F$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">'Question 2'!$E$3</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">'Question 2'!$E$4</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">'Question 2'!$E$5</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">'Question 2'!$E$6</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">'Question 2'!$F$2:$K$2</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">'Question 2'!$F$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">'Question 2'!$F$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Question 1'!$C$1</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">'Question 2'!$F$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">'Question 2'!$F$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">'Question 3'!$C$1</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">'Question 3'!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">'Question 3'!$D$1</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">'Question 3'!$D$2:$D$11</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">'Question 3'!$E$2:$E$11</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Question 1'!$C$2:$C$351</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Question 2'!$E$3</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Question 1'!$F$3:$F$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Question 1'!$G$3:$G$8</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Question 1'!$F$3:$F$8</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Question 1'!$G$3:$G$8</definedName>
     <definedName name="results" localSheetId="0">'Question 1'!$A$1:$C$351</definedName>
     <definedName name="results__1" localSheetId="1">'Question 2'!$A$1:$C$25</definedName>
     <definedName name="results__2" localSheetId="2">'Question 3'!$A$1:$D$11</definedName>
     <definedName name="results__3__1" localSheetId="3">'Question 4'!#REF!</definedName>
     <definedName name="results__3__2" localSheetId="3">'Question 4'!$A$1:$C$35</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId5"/>
+    <pivotCache cacheId="22" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -126,7 +53,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{0F8BFAD6-F0ED-B846-B9F0-BEDABB6C81D1}" name="results" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/dani/Downloads/results.csv" decimal="," thousands="." tab="0" comma="1">
+    <textPr sourceFile="/Users/dani/Downloads/results.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -135,7 +62,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{A2C1EDD7-92A6-7842-BDC7-3E74AE105CD7}" name="results (1)" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/dani/Downloads/results (1).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/dani/Downloads/results (1).csv" decimal="," thousands="." comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -144,7 +71,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{82B89263-F706-E544-9C86-31FE07B86E0D}" name="results (2)" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/dani/Downloads/results (2).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/dani/Downloads/results (2).csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -154,7 +81,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{6596D0DD-19AF-D940-98AA-9758C11A8CC4}" name="results (3)1" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/dani/Downloads/results (3).csv" comma="1">
+    <textPr sourceFile="/Users/dani/Downloads/results (3).csv" comma="1">
       <textFields count="4">
         <textField type="YMD"/>
         <textField/>
@@ -167,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="395">
   <si>
     <t>film_title</t>
   </si>
@@ -1438,19 +1365,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1458,7 +1379,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Total Movies by Category in each Quartile</a:t>
+              <a:t>Most popular family category</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1476,19 +1397,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1508,59 +1423,77 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Question 2'!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Question 2'!$F$2:$K$2</c:f>
+              <c:f>'Question 1'!$F$3:$F$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1586,388 +1519,53 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Question 2'!$F$3:$K$3</c:f>
+              <c:f>'Question 1'!$G$3:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>1166</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>939</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>1096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B62D-F248-A16E-5FC2AF3D46B5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Question 2'!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Question 2'!$F$2:$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Animation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Children</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Classics</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Comedy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Family</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Music</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Question 2'!$F$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B62D-F248-A16E-5FC2AF3D46B5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Question 2'!$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Question 2'!$F$2:$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Animation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Children</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Classics</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Comedy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Family</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Music</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Question 2'!$F$5:$K$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B62D-F248-A16E-5FC2AF3D46B5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Question 2'!$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Question 2'!$F$2:$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Animation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Children</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Classics</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Comedy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Family</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Music</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Question 2'!$F$6:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B62D-F248-A16E-5FC2AF3D46B5}"/>
+              <c16:uniqueId val="{00000000-9E94-2347-9163-A867B296FB8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="30214751"/>
-        <c:axId val="30216399"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="142933727"/>
+        <c:axId val="142763551"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="30214751"/>
+        <c:axId val="142933727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,10 +1578,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1993,7 +1592,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Categories</a:t>
+                  <a:t>Category</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2011,10 +1610,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2032,11 +1632,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2050,8 +1650,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2062,7 +1663,7 @@
             <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30216399"/>
+        <c:crossAx val="142763551"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2070,7 +1671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30216399"/>
+        <c:axId val="142763551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,9 +1681,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2097,10 +1698,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2110,7 +1712,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number of Movies</a:t>
+                  <a:t>Times rented out</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2128,10 +1730,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2161,8 +1764,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2173,7 +1777,7 @@
             <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30214751"/>
+        <c:crossAx val="142933727"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2185,63 +1789,22 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2284,19 +1847,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -2304,7 +1861,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Rentals per month for each store</a:t>
+              <a:t>Total Movies by Category in each Quartile</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2322,19 +1879,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -2355,97 +1906,140 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Store 1</c:v>
+            <c:strRef>
+              <c:f>'Question 2'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Question 3'!$H$2:$H$6</c:f>
+              <c:f>'Question 2'!$F$2:$K$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2005-05</c:v>
+                  <c:v>Animation</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2005-06</c:v>
+                  <c:v>Children</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2005-07</c:v>
+                  <c:v>Classics</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2005-08</c:v>
+                  <c:v>Comedy</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2006-02</c:v>
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Music</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Question 3'!$I$2:$I$6</c:f>
+              <c:f>'Question 2'!$F$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>558</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1163</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3342</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2882</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85</c:v>
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7538-CC46-BDEC-DA0862703B4A}"/>
+              <c16:uniqueId val="{00000000-B62D-F248-A16E-5FC2AF3D46B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2453,116 +2047,441 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Store 2</c:v>
+            <c:strRef>
+              <c:f>'Question 2'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Question 3'!$H$2:$H$6</c:f>
+              <c:f>'Question 2'!$F$2:$K$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2005-05</c:v>
+                  <c:v>Animation</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2005-06</c:v>
+                  <c:v>Children</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2005-07</c:v>
+                  <c:v>Classics</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2005-08</c:v>
+                  <c:v>Comedy</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2006-02</c:v>
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Music</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Question 3'!$J$2:$J$6</c:f>
+              <c:f>'Question 2'!$F$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>598</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1148</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3367</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2794</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97</c:v>
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7538-CC46-BDEC-DA0862703B4A}"/>
+              <c16:uniqueId val="{00000001-B62D-F248-A16E-5FC2AF3D46B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Question 2'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Question 2'!$F$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Animation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Children</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Classics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Comedy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Music</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Question 2'!$F$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B62D-F248-A16E-5FC2AF3D46B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Question 2'!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Question 2'!$F$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Animation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Children</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Classics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Comedy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Music</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Question 2'!$F$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B62D-F248-A16E-5FC2AF3D46B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="70187663"/>
-        <c:axId val="22331439"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="30214751"/>
+        <c:axId val="30216399"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70187663"/>
+        <c:axId val="30214751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,10 +2494,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2588,7 +2508,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Date as Year-Month</a:t>
+                  <a:t>Categories</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2606,10 +2526,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2627,11 +2548,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2645,8 +2566,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2657,7 +2579,7 @@
             <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22331439"/>
+        <c:crossAx val="30216399"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2665,7 +2587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22331439"/>
+        <c:axId val="30216399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2675,9 +2597,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2692,10 +2614,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2705,7 +2628,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Rental Qty</a:t>
+                  <a:t>Number of Movies</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2723,10 +2646,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2756,8 +2680,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2768,7 +2693,7 @@
             <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70187663"/>
+        <c:crossAx val="30214751"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2797,8 +2722,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2815,28 +2741,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2879,19 +2794,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -2899,7 +2808,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Top 10 customers monthly payment amount</a:t>
+              <a:t>Rentals per month for each store</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2917,19 +2826,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -2950,135 +2853,68 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Question 4'!$F$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2007-02</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Store 1</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Question 4'!$E$17:$E$26</c:f>
+              <c:f>'Question 3'!$H$2:$H$6</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Ana Bradley</c:v>
+                  <c:v>2005-05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Clara Shaw</c:v>
+                  <c:v>2005-06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Curtis Irby</c:v>
+                  <c:v>2005-07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Eleanor Hunt</c:v>
+                  <c:v>2005-08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Karl Seal</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Marcia Dean</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Marion Snyder</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mike Way</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Rhonda Kennedy</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Tommy Collazo</c:v>
+                  <c:v>2006-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Question 4'!$F$17:$F$26</c:f>
+              <c:f>'Question 3'!$I$2:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>19.96</c:v>
+                  <c:v>558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.94</c:v>
+                  <c:v>1163</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.94</c:v>
+                  <c:v>3342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.95</c:v>
+                  <c:v>2882</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.91</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37.92</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44.92</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35.94</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19.96</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25.93</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2DD0-2547-B0B4-61073C6CF276}"/>
+              <c16:uniqueId val="{00000000-7538-CC46-BDEC-DA0862703B4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3086,389 +2922,68 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Question 4'!$G$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2007-03</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Store 2</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Question 4'!$E$17:$E$26</c:f>
+              <c:f>'Question 3'!$H$2:$H$6</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Ana Bradley</c:v>
+                  <c:v>2005-05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Clara Shaw</c:v>
+                  <c:v>2005-06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Curtis Irby</c:v>
+                  <c:v>2005-07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Eleanor Hunt</c:v>
+                  <c:v>2005-08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Karl Seal</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Marcia Dean</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Marion Snyder</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mike Way</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Rhonda Kennedy</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Tommy Collazo</c:v>
+                  <c:v>2006-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Question 4'!$G$17:$G$26</c:f>
+              <c:f>'Question 3'!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>71.84</c:v>
+                  <c:v>598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.84</c:v>
+                  <c:v>1148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.83</c:v>
+                  <c:v>3367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.82</c:v>
+                  <c:v>2794</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.87</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>53.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58.88</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.849999999999994</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>74.849999999999994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>67.88</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2DD0-2547-B0B4-61073C6CF276}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Question 4'!$H$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2007-04</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Question 4'!$E$17:$E$26</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Ana Bradley</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Clara Shaw</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Curtis Irby</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Eleanor Hunt</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Karl Seal</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Marcia Dean</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Marion Snyder</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mike Way</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Rhonda Kennedy</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Tommy Collazo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Question 4'!$H$17:$H$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>72.88</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>93.82</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>54.86</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.78</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>89.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>73.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85.82</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>61.88</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>96.81</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89.82</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2DD0-2547-B0B4-61073C6CF276}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Question 4'!$I$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2007-05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Question 4'!$E$17:$E$26</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Ana Bradley</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Clara Shaw</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Curtis Irby</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Eleanor Hunt</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Karl Seal</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Marcia Dean</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Marion Snyder</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mike Way</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Rhonda Kennedy</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Tommy Collazo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Question 4'!$I$17:$I$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.99</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2DD0-2547-B0B4-61073C6CF276}"/>
+              <c16:uniqueId val="{00000001-7538-CC46-BDEC-DA0862703B4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3480,13 +2995,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="115878751"/>
-        <c:axId val="47958143"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="70187663"/>
+        <c:axId val="22331439"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115878751"/>
+        <c:axId val="70187663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3499,10 +3014,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3512,7 +3028,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Customer Name</a:t>
+                  <a:t>Date as Year-Month</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3530,10 +3046,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3551,11 +3068,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3569,8 +3086,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3581,7 +3099,7 @@
             <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47958143"/>
+        <c:crossAx val="22331439"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3589,7 +3107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47958143"/>
+        <c:axId val="22331439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3599,9 +3117,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3616,10 +3134,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3629,7 +3148,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Payed amount</a:t>
+                  <a:t>Rental Qty</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3647,10 +3166,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3680,8 +3200,801 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70187663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Top 10 customers monthly payment amount</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Question 4'!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2007-02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Question 4'!$E$17:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ana Bradley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Clara Shaw</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Curtis Irby</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Eleanor Hunt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Karl Seal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marcia Dean</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Marion Snyder</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mike Way</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rhonda Kennedy</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Tommy Collazo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Question 4'!$F$17:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DD0-2547-B0B4-61073C6CF276}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Question 4'!$G$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2007-03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Question 4'!$E$17:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ana Bradley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Clara Shaw</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Curtis Irby</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Eleanor Hunt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Karl Seal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marcia Dean</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Marion Snyder</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mike Way</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rhonda Kennedy</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Tommy Collazo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Question 4'!$G$17:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DD0-2547-B0B4-61073C6CF276}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Question 4'!$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2007-04</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Question 4'!$E$17:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ana Bradley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Clara Shaw</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Curtis Irby</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Eleanor Hunt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Karl Seal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marcia Dean</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Marion Snyder</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mike Way</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rhonda Kennedy</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Tommy Collazo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Question 4'!$H$17:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>72.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2DD0-2547-B0B4-61073C6CF276}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Question 4'!$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2007-05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Question 4'!$E$17:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ana Bradley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Clara Shaw</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Curtis Irby</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Eleanor Hunt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Karl Seal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marcia Dean</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Marion Snyder</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mike Way</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rhonda Kennedy</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Tommy Collazo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Question 4'!$I$17:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2DD0-2547-B0B4-61073C6CF276}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="115878751"/>
+        <c:axId val="47958143"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="115878751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Customer Name</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47958143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="47958143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Payed amount</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3721,8 +4034,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3739,28 +4053,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3780,147 +4083,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>The most watched movies in family category</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1600" b="1" i="0" u="none" strike="noStrike" spc="100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF">
-                  <a:lumMod val="95000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>The most watched movies in family category</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{43808C4F-E588-4740-B280-B51293CE8C68}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
-              <cx:v>rental_count</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:aggregation/>
-          </cx:layoutPr>
-          <cx:axisId val="1"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{21DD5E92-93D3-9F45-8192-BA7A3F1EB7CD}">
-          <cx:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </cx:spPr>
-          <cx:axisId val="2"/>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v>Movie Title</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:txPr>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="window" lastClr="FFFFFF">
-                      <a:lumMod val="95000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                </a:rPr>
-                <a:t>Movie Title</a:t>
-              </a:r>
-            </a:p>
-          </cx:txPr>
-        </cx:title>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v/>
-            </cx:txData>
-          </cx:tx>
-          <cx:txPr>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF">
-                    <a:lumMod val="95000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              </a:endParaRPr>
-            </a:p>
-          </cx:txPr>
-        </cx:title>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="2" hidden="1">
-        <cx:valScaling max="1" min="0"/>
-        <cx:units unit="percentage"/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4084,81 +4246,76 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="370">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -4183,80 +4340,42 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:satMod val="103000"/>
-              <a:lumMod val="102000"/>
-              <a:tint val="94000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:satMod val="110000"/>
-              <a:lumMod val="100000"/>
-              <a:shade val="100000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="99000"/>
-              <a:satMod val="120000"/>
-              <a:shade val="78000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4265,37 +4384,36 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4308,41 +4426,44 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4356,14 +4477,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4372,13 +4493,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4390,22 +4512,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4417,17 +4545,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-            <a:lumOff val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4439,14 +4567,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4455,16 +4583,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4473,26 +4602,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4500,34 +4630,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4538,19 +4661,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" spc="100">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4559,14 +4675,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4575,18 +4691,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4594,9 +4711,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4607,51 +4724,60 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4659,34 +4785,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -4695,8 +4813,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4715,6 +4834,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -4723,35 +4850,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4763,31 +4890,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4803,18 +4929,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4824,20 +4953,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4848,17 +4977,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4867,13 +4996,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4885,22 +5015,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4912,16 +5048,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4930,17 +5067,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4949,16 +5086,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4967,26 +5105,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4994,21 +5133,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5016,14 +5145,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5035,19 +5164,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5056,13 +5178,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5071,8 +5194,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5082,7 +5206,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5090,9 +5214,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5103,8 +5227,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5114,40 +5239,48 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5155,34 +5288,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -5191,8 +5316,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5211,6 +5337,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -5219,35 +5353,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5259,31 +5393,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5299,18 +5432,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5320,20 +5456,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5344,17 +5480,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5363,13 +5499,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5381,22 +5518,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5408,16 +5551,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5426,17 +5570,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5445,16 +5589,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5463,26 +5608,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5490,21 +5636,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5512,14 +5648,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5531,19 +5667,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5552,13 +5681,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5567,8 +5697,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5578,7 +5709,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5586,9 +5717,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5599,8 +5730,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5610,40 +5742,48 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5651,34 +5791,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -5687,8 +5819,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5707,6 +5840,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -5715,35 +5856,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5755,31 +5896,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5795,18 +5935,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5816,20 +5959,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5840,17 +5983,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5859,13 +6002,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5877,22 +6021,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5904,16 +6054,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5922,17 +6073,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5941,16 +6092,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5959,26 +6111,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5986,21 +6139,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6008,14 +6151,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6027,19 +6170,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6048,13 +6184,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6063,8 +6200,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6074,7 +6212,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6082,9 +6220,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6095,8 +6233,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6106,8 +6245,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6116,80 +6261,38 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Chart 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ED04D85-426F-E940-B055-812831690178}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3810000" y="558800"/>
-              <a:ext cx="12992100" cy="8242300"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489D8CB8-47D6-6B45-ABE3-A90BAA2EF8DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6534,7 +6637,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67227BDE-46E1-EC44-B1CD-1EB26783EAF8}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67227BDE-46E1-EC44-B1CD-1EB26783EAF8}" name="PivotTable2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E1:J13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -6949,10 +7052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803FD54F-9C1D-5F44-9416-52A0B71ECC04}">
-  <dimension ref="A1:C351"/>
+  <dimension ref="A1:G351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6962,7 +7065,7 @@
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6973,7 +7076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6984,7 +7087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6994,8 +7097,15 @@
       <c r="C3">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <f ca="1">SUMIF(B:C,F3,C:C)</f>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -7005,8 +7115,15 @@
       <c r="C4">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G11" ca="1" si="0">SUMIF(B:C,F4,C:C)</f>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -7016,8 +7133,15 @@
       <c r="C5">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -7027,8 +7151,15 @@
       <c r="C6">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -7038,8 +7169,15 @@
       <c r="C7">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -7049,8 +7187,15 @@
       <c r="C8">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -7061,7 +7206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -7072,7 +7217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -7083,7 +7228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -7094,7 +7239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -7105,7 +7250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -7116,7 +7261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -7127,7 +7272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -10834,7 +10979,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11485,7 +11630,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
